--- a/data/trans_bre/P20D1_R_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P20D1_R_2023-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>28.99104449339356</v>
+        <v>28.99104449339355</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>4.323261625138345</v>
+        <v>4.323261625138344</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.619727822566506</v>
+        <v>-6.762981087354403</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>76.3773648941754</v>
+        <v>74.54519109768779</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>35.47000056039351</v>
+        <v>36.255779564235</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>86.93438607008498</v>
+        <v>87.35348269601656</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>44.10895182367724</v>
+        <v>44.10895182367723</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>2.588819171863677</v>
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.069270690006754</v>
+        <v>-4.828342430248314</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.6797933779522686</v>
+        <v>-0.4479758329021648</v>
       </c>
     </row>
     <row r="12">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>82.19757393792872</v>
+        <v>79.21703252991882</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>22.53434798352783</v>
+        <v>14.90311752565516</v>
       </c>
     </row>
     <row r="13">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>25.17758702629192</v>
+        <v>25.17758702629194</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1.17161679853822</v>
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.65269829423416</v>
+        <v>-9.175696072899534</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3671654395359156</v>
+        <v>-0.4169928593602792</v>
       </c>
     </row>
     <row r="15">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>54.86371723439058</v>
+        <v>53.97641659222436</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8.568483090452787</v>
+        <v>6.296123680450114</v>
       </c>
     </row>
     <row r="16">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.793118522132644</v>
+        <v>-4.0480811562276</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.4819411754688034</v>
+        <v>-0.4023376793088041</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>47.52658454254457</v>
+        <v>48.58234514935176</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>71.81750226236278</v>
+        <v>71.81750226236275</v>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>39.81644490966002</v>
+        <v>39.81644490966001</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3.110625076943727</v>
+        <v>3.110625076943726</v>
       </c>
     </row>
     <row r="23">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>25.45528715807976</v>
+        <v>25.1708914462589</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1.040074945685767</v>
+        <v>1.081082436881118</v>
       </c>
     </row>
     <row r="24">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>54.3070149261704</v>
+        <v>55.07566444911652</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>8.211914968964296</v>
+        <v>7.416035009668975</v>
       </c>
     </row>
     <row r="25">
